--- a/transport_record.xlsx
+++ b/transport_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travel-Tales-Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60F37A9-D328-4C8C-BEFF-06DD16696941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB90F2-988C-4734-80B5-DC9E0AF7376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5120CA57-A492-404B-8540-E8A501059C9D}"/>
   </bookViews>
@@ -1986,6 +1986,3075 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>台州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桐乡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>07C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌镇行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>桐乡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>08</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>08D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌镇行返程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>温岭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海虹桥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海中转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉萨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>直达特快</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉萨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>候车室</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上铺</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进藏</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日喀则</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新空直达</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日喀则</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉萨</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>056</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>珠峰返，车饰，藏民</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉萨贡嘎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都双流</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>319-100</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贡嘎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波栎社</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>320</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栎社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春秋航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>川藏行返程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋返校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>320-200</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栎社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东方航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春返乡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春返校，车票报销</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海虹桥</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>09F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高金面试</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>18F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏返校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀什徕宁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>波音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>737-800(WL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀什徠宁</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀什行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌鲁木齐地窝堡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀什徕宁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地窝堡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乌鲁木齐暂驻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>330-300(X)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>地窝堡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海南航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>喀什行，返程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首都</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栎社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冬返乡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海浦东</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京大兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>浦东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大兴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南方航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春返校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏返乡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车次</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>始发站</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>终到站</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>里程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乘坐区间</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>区间里程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检票</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>座位号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>票价</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>担当局</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8615</t>
+  </si>
+  <si>
+    <t>12:00-13:18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6033</t>
+  </si>
+  <si>
+    <t>16:14-18:27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:36-13:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:02-17:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:29-12:54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:44-19:09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:20-16:58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋入学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16:05-21:28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:37-14:26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G205</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18:52-22:15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G212</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:32-12:45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2533</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19:08-20:53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2540</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00-16:38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13:18-15:25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3141</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20AB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21:46-00:12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3U8938</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:30-10:39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MU6488</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空客</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>321-200(N)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栎社</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>T1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>四川航空</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>川西行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都东</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙坪坝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>成都东</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙坪坝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>02A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆西</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>六盘水</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>城际</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重庆西</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵阳北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>02F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵阳行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昆明南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高速</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵阳北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昆明南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昆明行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>昆明南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>呈贡昆明南站</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>7A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长沙南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金华</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>09A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金华聚会</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>贵阳北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁海</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金华</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>01C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波暂驻</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>12A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秋入学</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大兴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栎社</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16A</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>春返校</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>07F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛半马</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>04F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青岛半马返程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大同南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京北</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大同南</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>负一层第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检票口</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>02D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大同行</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大同南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>北京北</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>05F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大同行返程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>10B</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>06F</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏实习</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>南京</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>龙岩</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上海虹桥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宁波</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>07</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>车</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>16C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夏返乡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>19</t>
     </r>
     <r>
@@ -1998,3074 +5067,15 @@
       </rPr>
       <t>冬返乡</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>台州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>桐乡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>07C</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌镇行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>常州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>桐乡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>08</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>08D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌镇行返程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>温岭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海虹桥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10C</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海中转</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拉萨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>直达特快</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拉萨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>候车室</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上铺</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进藏</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日喀则</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>新空直达</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日喀则</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拉萨</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>加</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>056</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>珠峰返，车饰，藏民</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拉萨贡嘎</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都双流</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>319-100</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贡嘎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波栎社</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>320</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栎社</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春秋航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>川藏行返程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>01F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋返校</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>320-200</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栎社</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>东方航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春返乡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春返校，车票报销</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海虹桥</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>09F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高金面试</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>18F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>21</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏返校</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喀什徕宁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>波音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>737-800(WL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喀什徠宁</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喀什行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌鲁木齐地窝堡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喀什徕宁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地窝堡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乌鲁木齐暂驻</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>330-300(X)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>地窝堡</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>海南航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>喀什行，返程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首都</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T3-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栎社</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冬返乡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海浦东</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京大兴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>浦东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大兴</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>南方航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春返校</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏返乡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车次</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>始发站</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>终到站</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>里程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>乘坐区间</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>区间里程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检票</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>座位号</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>票价</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>担当局</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>备注</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8615</t>
-  </si>
-  <si>
-    <t>12:00-13:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6033</t>
-  </si>
-  <si>
-    <t>16:14-18:27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:36-13:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11:02-17:17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1696</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>09:29-12:54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1350</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2334</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:44-19:09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:20-16:58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>18</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋入学</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16:05-21:28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:37-14:26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G205</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18:52-22:15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G212</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:32-12:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2533</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19:08-20:53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2540</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00-16:38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13:18-15:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3141</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20AB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21:46-00:12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3U8938</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>08:30-10:39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MU6488</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>空客</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>321-200(N)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栎社</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T2-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>双流</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四川航空</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>川西行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都东</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沙坪坝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>成都东</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沙坪坝</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>02A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重庆行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重庆西</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>六盘水</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>城际</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>重庆西</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵阳北</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>02F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵阳行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昆明南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高速</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵阳北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昆明南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昆明行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>昆明南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长沙南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>呈贡昆明南站</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>7A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长沙行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长沙南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>长沙南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金华</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>09A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金华聚会</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>贵阳北</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁海</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金华</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>02</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>01C</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波暂驻</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>06</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>12A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秋入学</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大兴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>栎社</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>16A</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>春返校</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>11B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>03</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>07F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛半马</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛北</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>04F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青岛半马返程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京北</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大同南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京北</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大同南</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>负一层第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检票口</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>04</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>02D</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大同行</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大同南</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>北京北</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>05F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大同行返程</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>10B</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>06F</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏实习</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>南京</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>龙岩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上海虹桥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宁波</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>07</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>16C</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>23</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>夏返乡</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；青岛-徐州-杭州</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5078,7 +5088,7 @@
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5120,6 +5130,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -5501,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD42DA-A0D8-4BC5-9678-C1CC35497B79}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5525,46 +5542,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="L1" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>251</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -5687,7 +5704,7 @@
         <v>446.5</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6346,7 +6363,7 @@
         <v>446.5</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6360,7 +6377,7 @@
         <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>117</v>
@@ -6372,7 +6389,7 @@
         <v>466</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I21" s="2">
         <v>202</v>
@@ -6381,13 +6398,13 @@
         <v>38</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L21" s="4">
         <v>92.5</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6401,7 +6418,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>111</v>
@@ -6413,7 +6430,7 @@
         <v>479</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I22" s="2">
         <v>202</v>
@@ -6422,13 +6439,13 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L22" s="4">
         <v>92.5</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6442,7 +6459,7 @@
         <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>117</v>
@@ -6454,7 +6471,7 @@
         <v>490</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I23" s="2">
         <v>314</v>
@@ -6463,13 +6480,13 @@
         <v>43</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L23" s="4">
         <v>144</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6486,31 +6503,31 @@
         <v>152</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="G24" s="2">
         <v>4373</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="2">
         <v>4373</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="L24" s="4">
         <v>793.5</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6524,19 +6541,19 @@
         <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="G25" s="2">
         <v>248</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I25" s="2">
         <v>248</v>
@@ -6545,13 +6562,13 @@
         <v>20</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L25" s="4">
         <v>40.5</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6565,19 +6582,19 @@
         <v>64</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="G26" s="2">
         <v>1334</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I26" s="2">
         <v>1334</v>
@@ -6592,10 +6609,10 @@
         <v>1020</v>
       </c>
       <c r="M26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6609,25 +6626,25 @@
         <v>79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="L27" s="4">
         <v>560</v>
       </c>
       <c r="M27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6659,13 +6676,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L28" s="4">
         <v>446.5</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6682,16 +6699,16 @@
         <v>164</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G29" s="2">
         <v>1338</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I29" s="2">
         <v>1338</v>
@@ -6706,10 +6723,10 @@
         <v>370</v>
       </c>
       <c r="M29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6732,7 +6749,7 @@
         <v>1434</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6758,7 +6775,7 @@
         <v>1318</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I31" s="2">
         <v>1318</v>
@@ -6767,13 +6784,13 @@
         <v>53</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L31" s="4">
         <v>526</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6808,13 +6825,13 @@
         <v>55</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L32" s="4">
         <v>541</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6831,16 +6848,16 @@
         <v>164</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G33" s="2">
         <v>3752</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I33" s="2">
         <v>3752</v>
@@ -6858,7 +6875,7 @@
         <v>167</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6872,19 +6889,19 @@
         <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="G34" s="2">
         <v>1311</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I34" s="2">
         <v>1311</v>
@@ -6902,7 +6919,7 @@
         <v>167</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6916,19 +6933,19 @@
         <v>89</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>164</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G35" s="2">
         <v>2842</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I35" s="2">
         <v>2842</v>
@@ -6943,10 +6960,10 @@
         <v>860</v>
       </c>
       <c r="M35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6963,16 +6980,16 @@
         <v>164</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G36" s="2">
         <v>1338</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I36" s="2">
         <v>1338</v>
@@ -6990,7 +7007,7 @@
         <v>167</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7004,19 +7021,19 @@
         <v>71</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G37" s="2">
         <v>1178</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I37" s="2">
         <v>1178</v>
@@ -7031,10 +7048,10 @@
         <v>380</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="N37" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7069,13 +7086,13 @@
         <v>53</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" s="4">
         <v>541</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7083,43 +7100,43 @@
         <v>44751</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>289</v>
-      </c>
       <c r="D39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G39" s="2">
         <v>1803</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I39" s="2">
         <v>1803</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L39" s="4">
         <v>920</v>
       </c>
       <c r="M39" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="N39" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7127,16 +7144,16 @@
         <v>44763</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>123</v>
@@ -7145,22 +7162,22 @@
         <v>299</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I40" s="2">
         <v>299</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L40" s="4">
         <v>164</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7168,34 +7185,34 @@
         <v>44765</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L41" s="4">
         <v>139</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7203,25 +7220,25 @@
         <v>44767</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>125</v>
@@ -7230,7 +7247,7 @@
         <v>212.5</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7238,13 +7255,13 @@
         <v>44769</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>262</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>102</v>
@@ -7256,22 +7273,22 @@
         <v>2092</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I43" s="2">
         <v>1169</v>
       </c>
       <c r="J43" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K43" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="L43" s="4">
         <v>498.5</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7279,13 +7296,13 @@
         <v>44770</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="D44" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>117</v>
@@ -7297,22 +7314,22 @@
         <v>1083</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I44" s="2">
         <v>763</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L44" s="4">
         <v>338</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7320,16 +7337,16 @@
         <v>44771</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>123</v>
@@ -7338,22 +7355,22 @@
         <v>1857</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I45" s="2">
         <v>316</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L45" s="4">
         <v>130.5</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7361,7 +7378,7 @@
         <v>44796</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>54</v>
@@ -7388,13 +7405,13 @@
         <v>18</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L46" s="4">
         <v>541</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7402,43 +7419,43 @@
         <v>44944</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G47" s="2">
         <v>1338</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I47" s="2">
         <v>1338</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L47" s="4">
         <v>362</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7446,10 +7463,10 @@
         <v>44964</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>111</v>
@@ -7470,16 +7487,16 @@
         <v>1434</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L48" s="4">
         <v>541</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7487,16 +7504,16 @@
         <v>45003</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>123</v>
@@ -7505,22 +7522,22 @@
         <v>819</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I49" s="2">
         <v>819</v>
       </c>
       <c r="J49" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K49" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="L49" s="4">
         <v>349</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7528,13 +7545,13 @@
         <v>45004</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>277</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>94</v>
@@ -7546,22 +7563,22 @@
         <v>804</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I50" s="2">
         <v>804</v>
       </c>
       <c r="J50" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="L50" s="4">
         <v>336</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7569,34 +7586,34 @@
         <v>45044</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>279</v>
-      </c>
       <c r="D51" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="F51" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H51" s="2" t="s">
+      <c r="J51" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="L51" s="4">
         <v>170</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7604,34 +7621,34 @@
         <v>45045</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="D52" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J52" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="H52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="L52" s="4">
         <v>156</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7639,10 +7656,10 @@
         <v>45088</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>94</v>
@@ -7657,22 +7674,22 @@
         <v>1318</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I53" s="2">
         <v>1318</v>
       </c>
       <c r="J53" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="K53" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="L53" s="4">
         <v>662</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -7680,16 +7697,16 @@
         <v>45130</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>286</v>
-      </c>
       <c r="D54" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>148</v>
@@ -7698,22 +7715,22 @@
         <v>1549</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I54" s="2">
         <v>314</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L54" s="4">
         <v>116</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/transport_record.xlsx
+++ b/transport_record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Travel-Tales-Tickets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes_代码\mygitrep\Travel-Tales-Tickets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BB90F2-988C-4734-80B5-DC9E0AF7376F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F9E38-D16E-4C8F-9DF5-ACD37DE7F8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5120CA57-A492-404B-8540-E8A501059C9D}"/>
   </bookViews>
@@ -5518,8 +5518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FD42DA-A0D8-4BC5-9678-C1CC35497B79}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5586,344 +5586,335 @@
     </row>
     <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>42967</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>45130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>284</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>354</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>355</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="G2" s="2">
-        <v>1709</v>
+        <v>1549</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>356</v>
       </c>
       <c r="I2" s="2">
-        <v>1434</v>
+        <v>314</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="L2" s="4">
-        <v>595.5</v>
+        <v>116</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>98</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>42974</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>3</v>
+        <v>45088</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>282</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G3" s="2">
-        <v>1691</v>
+        <v>1318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="I3" s="2">
-        <v>1434</v>
-      </c>
-      <c r="J3" s="3">
-        <v>8</v>
+        <v>1318</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>351</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="L3" s="4">
-        <v>595.5</v>
+        <v>662</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>101</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43341</v>
+        <v>45045</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>279</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>280</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>94</v>
+        <v>342</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2011</v>
+        <v>311</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1434</v>
+        <v>348</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>103</v>
+        <v>281</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>349</v>
       </c>
       <c r="L4" s="4">
-        <v>446.5</v>
+        <v>156</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43375</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>45044</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>278</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>104</v>
+        <v>342</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G5" s="2">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="2">
-        <v>127</v>
+        <v>344</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>107</v>
+        <v>345</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="L5" s="4">
-        <v>54.5</v>
+        <v>170</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>108</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43489</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>45004</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>2</v>
+        <v>276</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G6" s="2">
-        <v>1709</v>
+        <v>804</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>99</v>
+        <v>338</v>
       </c>
       <c r="I6" s="2">
-        <v>1434</v>
-      </c>
-      <c r="J6" s="3">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>109</v>
+        <v>804</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>340</v>
       </c>
       <c r="L6" s="4">
-        <v>446.5</v>
+        <v>336</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43509</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>45003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>273</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>274</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>94</v>
+        <v>332</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="G7" s="2">
-        <v>1434</v>
+        <v>819</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>96</v>
+        <v>333</v>
       </c>
       <c r="I7" s="2">
-        <v>1434</v>
+        <v>819</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>112</v>
+        <v>334</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="L7" s="4">
-        <v>446.5</v>
+        <v>349</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>113</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43638</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>44964</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>270</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
+        <v>271</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G8" s="2">
-        <v>1709</v>
+        <v>1434</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2">
         <v>1434</v>
       </c>
-      <c r="J8" s="3">
-        <v>8</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>114</v>
+      <c r="J8" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="L8" s="4">
-        <v>446.5</v>
+        <v>541</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
+        <v>44944</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="G9" s="2">
-        <v>610</v>
+        <v>1338</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="I9" s="2">
-        <v>155</v>
+        <v>1338</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>120</v>
+        <v>294</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="L9" s="4">
-        <v>53.5</v>
+        <v>362</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>121</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>44796</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>94</v>
@@ -5932,719 +5923,713 @@
         <v>123</v>
       </c>
       <c r="G10" s="2">
-        <v>1279</v>
+        <v>1434</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="I10" s="2">
-        <v>1279</v>
+        <v>1434</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>125</v>
+      <c r="K10" s="2" t="s">
+        <v>327</v>
       </c>
       <c r="L10" s="4">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>126</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43658</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>46</v>
+        <v>44771</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>266</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>265</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>127</v>
+        <v>322</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G11" s="2">
-        <v>2086</v>
+        <v>1857</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="I11" s="2">
-        <v>2086</v>
+        <v>316</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>131</v>
+        <v>267</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="L11" s="4">
-        <v>421</v>
+        <v>130.5</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43667</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
+        <v>44770</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G12" s="2">
-        <v>420</v>
+        <v>1083</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="I12" s="2">
-        <v>333</v>
+        <v>763</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>136</v>
+        <v>264</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="L12" s="4">
-        <v>98</v>
+        <v>338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43668</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
+        <v>44769</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="G13" s="2">
-        <v>111</v>
+        <v>2092</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="I13" s="2">
-        <v>111</v>
+        <v>1169</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>140</v>
+        <v>315</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="L13" s="4">
-        <v>31.5</v>
+        <v>498.5</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>141</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43668</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4341</v>
+        <v>44767</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>138</v>
+        <v>299</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>142</v>
+        <v>310</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="2">
-        <v>131</v>
+        <v>311</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="2">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>145</v>
+        <v>259</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="L14" s="4">
-        <v>6</v>
+        <v>212.5</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>146</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43690</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>28</v>
+        <v>44765</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>147</v>
+        <v>304</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>94</v>
+        <v>305</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G15" s="2">
-        <v>774</v>
+        <v>306</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="2">
-        <v>774</v>
+        <v>307</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>150</v>
+        <v>20</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="L15" s="4">
-        <v>261</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43735</v>
+        <v>44763</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>127</v>
+        <v>299</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>152</v>
+        <v>300</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="G16" s="2">
-        <v>1463</v>
+        <v>299</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>153</v>
+        <v>301</v>
       </c>
       <c r="I16" s="2">
-        <v>1463</v>
+        <v>299</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>154</v>
+        <v>254</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>302</v>
       </c>
       <c r="L16" s="4">
-        <v>440</v>
+        <v>164</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>155</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43739</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>44751</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>288</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>202</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="G17" s="2">
-        <v>2510</v>
+        <v>1803</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="I17" s="2">
-        <v>167</v>
+        <v>1803</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>161</v>
+        <v>290</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="L17" s="4">
-        <v>24.5</v>
+        <v>920</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>162</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43741</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>58</v>
+        <v>44744</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>165</v>
+        <v>111</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="G18" s="2">
-        <v>1200</v>
+        <v>1434</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>166</v>
+        <v>99</v>
       </c>
       <c r="I18" s="2">
-        <v>1200</v>
+        <v>1434</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="L18" s="4">
-        <v>410</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>167</v>
+        <v>541</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>168</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43744</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>44598</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="G19" s="2">
-        <v>120</v>
+        <v>1178</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="I19" s="2">
-        <v>120</v>
+        <v>1178</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>170</v>
+        <v>77</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="L19" s="4">
-        <v>54.5</v>
+        <v>380</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>235</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43845</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>44590</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>94</v>
+        <v>164</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="G20" s="2">
-        <v>1709</v>
+        <v>1338</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="I20" s="2">
-        <v>1434</v>
-      </c>
-      <c r="J20" s="3">
-        <v>8</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>172</v>
+        <v>1338</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="L20" s="4">
-        <v>446.5</v>
+        <v>470</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44037</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>44389</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="G21" s="2">
-        <v>466</v>
+        <v>2842</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="I21" s="2">
-        <v>202</v>
+        <v>2842</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>175</v>
+        <v>91</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="L21" s="4">
-        <v>92.5</v>
+        <v>860</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>176</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44038</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>39</v>
+        <v>44387</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="G22" s="2">
-        <v>479</v>
+        <v>1311</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="I22" s="2">
-        <v>202</v>
+        <v>1311</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>179</v>
+        <v>87</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="L22" s="4">
-        <v>92.5</v>
+        <v>420</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>180</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44066</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>44382</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>117</v>
+        <v>219</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="G23" s="2">
-        <v>490</v>
+        <v>3752</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="I23" s="2">
-        <v>314</v>
+        <v>3752</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="L23" s="4">
-        <v>144</v>
+        <v>1740</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44066</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
+        <v>44376</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>186</v>
+        <v>123</v>
       </c>
       <c r="G24" s="2">
-        <v>4373</v>
+        <v>1434</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>187</v>
+        <v>96</v>
       </c>
       <c r="I24" s="2">
-        <v>4373</v>
+        <v>1434</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L24" s="4">
-        <v>793.5</v>
+        <v>541</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44075</v>
+        <v>44364</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>185</v>
+        <v>117</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="G25" s="2">
-        <v>248</v>
+        <v>1318</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="I25" s="2">
-        <v>248</v>
+        <v>1318</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="L25" s="4">
-        <v>40.5</v>
+        <v>526</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44077</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>64</v>
+        <v>44261</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>196</v>
+        <v>111</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>198</v>
+        <v>94</v>
       </c>
       <c r="G26" s="2">
-        <v>1334</v>
+        <v>1434</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="I26" s="2">
-        <v>1334</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="4">
-        <v>1020</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>200</v>
+        <v>1434</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44080</v>
+        <v>44231</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>203</v>
+        <v>209</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1338</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1338</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="L27" s="4">
-        <v>560</v>
+        <v>370</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
@@ -6687,1053 +6672,1071 @@
     </row>
     <row r="29" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44231</v>
+        <v>44080</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>202</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1338</v>
+        <v>203</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1338</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="L29" s="4">
-        <v>370</v>
+        <v>560</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44261</v>
+        <v>44077</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>197</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="G30" s="2">
-        <v>1434</v>
+        <v>1334</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="I30" s="2">
-        <v>1434</v>
+        <v>1334</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="4">
+        <v>1020</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44364</v>
+        <v>44075</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="G31" s="2">
-        <v>1318</v>
+        <v>248</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="I31" s="2">
-        <v>1318</v>
+        <v>248</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="L31" s="4">
-        <v>526</v>
+        <v>40.5</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44376</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>92</v>
+        <v>44066</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G32" s="2">
-        <v>1434</v>
+        <v>490</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="I32" s="2">
-        <v>1434</v>
+        <v>314</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="L32" s="4">
-        <v>541</v>
+        <v>144</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44382</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>82</v>
+        <v>44066</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="G33" s="2">
-        <v>3752</v>
+        <v>4373</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="I33" s="2">
-        <v>3752</v>
+        <v>4373</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="L33" s="4">
-        <v>1740</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>167</v>
+        <v>793.5</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>222</v>
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44387</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>85</v>
+        <v>44038</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>223</v>
+        <v>111</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="G34" s="2">
-        <v>1311</v>
+        <v>479</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="I34" s="2">
-        <v>1311</v>
+        <v>202</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>86</v>
+        <v>20</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="L34" s="4">
-        <v>420</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>167</v>
+        <v>92.5</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44389</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>88</v>
+        <v>44037</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="G35" s="2">
-        <v>2842</v>
+        <v>466</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="I35" s="2">
-        <v>2842</v>
+        <v>202</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>90</v>
+        <v>38</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>175</v>
       </c>
       <c r="L35" s="4">
-        <v>860</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>228</v>
+        <v>92.5</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>229</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44590</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>72</v>
+        <v>43845</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>202</v>
+        <v>93</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>220</v>
+        <v>95</v>
       </c>
       <c r="G36" s="2">
-        <v>1338</v>
+        <v>1709</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>230</v>
+        <v>99</v>
       </c>
       <c r="I36" s="2">
-        <v>1338</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>73</v>
+        <v>1434</v>
+      </c>
+      <c r="J36" s="3">
+        <v>8</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="L36" s="4">
-        <v>470</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>167</v>
+        <v>446.5</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44598</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>75</v>
+        <v>43744</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>232</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G37" s="2">
-        <v>1178</v>
+        <v>120</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="I37" s="2">
-        <v>1178</v>
+        <v>120</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="L37" s="4">
-        <v>380</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>235</v>
+        <v>54.5</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>236</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44744</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>57</v>
+        <v>43741</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>95</v>
+        <v>164</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G38" s="2">
-        <v>1434</v>
+        <v>1200</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="I38" s="2">
-        <v>1434</v>
+        <v>1200</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>207</v>
+        <v>60</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="L38" s="4">
-        <v>541</v>
+        <v>410</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44751</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>287</v>
+        <v>43739</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="G39" s="2">
-        <v>1803</v>
+        <v>2510</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>296</v>
+        <v>159</v>
       </c>
       <c r="I39" s="2">
-        <v>1803</v>
+        <v>167</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>289</v>
+        <v>160</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="L39" s="4">
-        <v>920</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>297</v>
+        <v>24.5</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>298</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44763</v>
+        <v>43735</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>252</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>299</v>
+        <v>127</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="G40" s="2">
-        <v>299</v>
+        <v>1463</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>301</v>
+        <v>153</v>
       </c>
       <c r="I40" s="2">
-        <v>299</v>
+        <v>1463</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>302</v>
+        <v>20</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>154</v>
       </c>
       <c r="L40" s="4">
-        <v>164</v>
+        <v>440</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>303</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44765</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>256</v>
+        <v>43690</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>306</v>
+        <v>148</v>
+      </c>
+      <c r="G41" s="2">
+        <v>774</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>307</v>
+        <v>149</v>
+      </c>
+      <c r="I41" s="2">
+        <v>774</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>308</v>
+        <v>29</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="L41" s="4">
-        <v>139</v>
+        <v>261</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>309</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44767</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>258</v>
+        <v>43668</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>257</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>299</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>311</v>
+        <v>105</v>
+      </c>
+      <c r="G42" s="2">
+        <v>111</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>312</v>
+        <v>139</v>
+      </c>
+      <c r="I42" s="2">
+        <v>111</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>125</v>
+        <v>25</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="L42" s="4">
-        <v>212.5</v>
+        <v>31.5</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>313</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44769</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>261</v>
+        <v>43668</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4341</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>310</v>
+        <v>138</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="G43" s="2">
-        <v>2092</v>
+        <v>131</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="I43" s="2">
-        <v>1169</v>
+        <v>90</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>316</v>
+        <v>20</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="L43" s="4">
-        <v>498.5</v>
+        <v>6</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>317</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44770</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>262</v>
+        <v>43667</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>263</v>
+        <v>21</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="G44" s="2">
-        <v>1083</v>
+        <v>420</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="I44" s="2">
-        <v>763</v>
+        <v>333</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>320</v>
+        <v>20</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="L44" s="4">
-        <v>338</v>
+        <v>98</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>321</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44771</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>266</v>
+        <v>43658</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>265</v>
+        <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>322</v>
+        <v>127</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G45" s="2">
-        <v>1857</v>
+        <v>2086</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>324</v>
+        <v>130</v>
       </c>
       <c r="I45" s="2">
-        <v>316</v>
+        <v>2086</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>325</v>
+        <v>20</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="L45" s="4">
-        <v>130.5</v>
+        <v>421</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>326</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44796</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>268</v>
+        <v>43646</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G46" s="2">
-        <v>1434</v>
+        <v>610</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="I46" s="2">
-        <v>1434</v>
+        <v>155</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>327</v>
+        <v>15</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="L46" s="4">
-        <v>541</v>
+        <v>53.5</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>328</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44944</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>291</v>
+        <v>43646</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>233</v>
+        <v>122</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
       <c r="G47" s="2">
-        <v>1338</v>
+        <v>1279</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="I47" s="2">
-        <v>1338</v>
+        <v>1279</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>293</v>
+        <v>18</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="L47" s="4">
-        <v>362</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>211</v>
+        <v>404</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44964</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>270</v>
+        <v>43638</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>271</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="2">
-        <v>1434</v>
+        <v>1709</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I48" s="2">
         <v>1434</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>330</v>
+      <c r="J48" s="3">
+        <v>8</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>114</v>
       </c>
       <c r="L48" s="4">
-        <v>541</v>
+        <v>446.5</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>331</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45003</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>273</v>
+        <v>43509</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="G49" s="2">
-        <v>819</v>
+        <v>1434</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="I49" s="2">
-        <v>819</v>
+        <v>1434</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>335</v>
+        <v>1</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="L49" s="4">
-        <v>349</v>
+        <v>446.5</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>336</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45004</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>275</v>
+        <v>43489</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>276</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>337</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G50" s="2">
-        <v>804</v>
+        <v>1709</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>338</v>
+        <v>99</v>
       </c>
       <c r="I50" s="2">
-        <v>804</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>340</v>
+        <v>1434</v>
+      </c>
+      <c r="J50" s="3">
+        <v>8</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="L50" s="4">
-        <v>336</v>
+        <v>446.5</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>341</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45044</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>277</v>
+        <v>43375</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>278</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>342</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>311</v>
+        <v>105</v>
+      </c>
+      <c r="G51" s="2">
+        <v>127</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>344</v>
+        <v>106</v>
+      </c>
+      <c r="I51" s="2">
+        <v>127</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>346</v>
+        <v>8</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="L51" s="4">
-        <v>170</v>
+        <v>54.5</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>347</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45045</v>
+        <v>43341</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>279</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>280</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>343</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>342</v>
+        <v>94</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>311</v>
+        <v>95</v>
+      </c>
+      <c r="G52" s="2">
+        <v>2011</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>348</v>
+        <v>96</v>
+      </c>
+      <c r="I52" s="2">
+        <v>1434</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>349</v>
+        <v>1</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="L52" s="4">
-        <v>156</v>
+        <v>446.5</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>350</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45088</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>283</v>
+        <v>42974</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>282</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="G53" s="2">
-        <v>1318</v>
+        <v>1691</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="I53" s="2">
-        <v>1318</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>351</v>
+        <v>1434</v>
+      </c>
+      <c r="J53" s="3">
+        <v>8</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>352</v>
+        <v>100</v>
       </c>
       <c r="L53" s="4">
-        <v>662</v>
+        <v>595.5</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>353</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45130</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>284</v>
+        <v>42967</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>354</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>355</v>
+        <v>94</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>148</v>
+        <v>95</v>
       </c>
       <c r="G54" s="2">
-        <v>1549</v>
+        <v>1709</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>356</v>
+        <v>96</v>
       </c>
       <c r="I54" s="2">
-        <v>314</v>
+        <v>1434</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>357</v>
+        <v>97</v>
       </c>
       <c r="L54" s="4">
-        <v>116</v>
+        <v>595.5</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>358</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N54">
+    <sortCondition descending="1" ref="A1:A54"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
